--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,8 +568,8 @@
     <t>Dosage.timing.repeat.bounds[x]</t>
   </si>
   <si>
-    <t>Duration
-RangePeriod</t>
+    <t xml:space="preserve">Duration
+</t>
   </si>
   <si>
     <t>服用・注射開始日から服用・注射終了日までの全日数</t>
@@ -582,6 +582,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Timing.repeat.bounds[x]</t>
   </si>
   <si>
@@ -589,16 +592,6 @@
   </si>
   <si>
     <t>boundsDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
-</t>
-  </si>
-  <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>Dosage.timing.repeat.bounds[x].id</t>
@@ -1395,9 +1388,6 @@
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -4232,10 +4222,10 @@
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4250,7 +4240,7 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -4261,7 +4251,7 @@
         <v>177</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
@@ -4283,13 +4273,13 @@
         <v>117</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4340,7 +4330,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4355,7 +4345,7 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4363,7 +4353,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4466,7 +4456,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4571,7 +4561,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4594,19 +4584,19 @@
         <v>117</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4655,7 +4645,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4670,15 +4660,15 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4701,68 +4691,68 @@
         <v>117</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" t="s" s="2">
+      <c r="X27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4777,15 +4767,15 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4811,21 +4801,21 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4867,7 +4857,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4882,15 +4872,15 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4913,89 +4903,89 @@
         <v>117</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5003,7 +4993,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
@@ -5018,26 +5008,26 @@
         <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>74</v>
@@ -5079,7 +5069,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5094,10 +5084,10 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -5105,7 +5095,7 @@
         <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>74</v>
@@ -5127,16 +5117,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5186,7 +5176,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5195,21 +5185,21 @@
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AI31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5232,19 +5222,19 @@
         <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5293,7 +5283,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5308,7 +5298,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5316,7 +5306,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5339,16 +5329,16 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5398,7 +5388,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5413,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5421,7 +5411,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5444,19 +5434,19 @@
         <v>117</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5505,7 +5495,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5520,7 +5510,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5528,7 +5518,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5551,19 +5541,19 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5612,7 +5602,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5627,7 +5617,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5635,7 +5625,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5658,13 +5648,13 @@
         <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>149</v>
@@ -5693,31 +5683,31 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5732,7 +5722,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5740,7 +5730,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5763,23 +5753,23 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>74</v>
@@ -5824,7 +5814,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5839,7 +5829,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5847,7 +5837,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5870,16 +5860,16 @@
         <v>117</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5929,7 +5919,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5944,7 +5934,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5952,7 +5942,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5975,16 +5965,16 @@
         <v>117</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6034,7 +6024,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6049,7 +6039,7 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6057,7 +6047,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6080,16 +6070,16 @@
         <v>117</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6139,7 +6129,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6154,7 +6144,7 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6162,7 +6152,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6185,13 +6175,13 @@
         <v>117</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>149</v>
@@ -6220,13 +6210,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6244,7 +6234,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6259,7 +6249,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6267,7 +6257,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6290,16 +6280,16 @@
         <v>117</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6325,11 +6315,11 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6347,7 +6337,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6370,7 +6360,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6393,16 +6383,16 @@
         <v>117</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6452,7 +6442,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6475,7 +6465,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6498,19 +6488,19 @@
         <v>117</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6535,31 +6525,31 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6574,7 +6564,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6582,7 +6572,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6605,16 +6595,16 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6664,7 +6654,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6679,7 +6669,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6687,7 +6677,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6713,13 +6703,13 @@
         <v>138</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6749,7 +6739,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6767,7 +6757,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6782,7 +6772,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6790,7 +6780,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6813,16 +6803,16 @@
         <v>117</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6872,7 +6862,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6887,15 +6877,15 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6921,16 +6911,16 @@
         <v>138</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6959,7 +6949,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6977,7 +6967,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6992,15 +6982,15 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7026,16 +7016,16 @@
         <v>138</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7064,7 +7054,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7082,7 +7072,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7097,15 +7087,15 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7131,16 +7121,16 @@
         <v>138</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7165,14 +7155,14 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="X50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7189,7 +7179,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7204,15 +7194,15 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7315,7 +7305,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7420,7 +7410,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7443,19 +7433,19 @@
         <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7492,7 +7482,7 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
@@ -7502,7 +7492,7 @@
         <v>96</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7517,18 +7507,18 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>74</v>
@@ -7550,19 +7540,19 @@
         <v>117</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7591,7 +7581,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7609,7 +7599,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7624,15 +7614,15 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7735,7 +7725,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7840,7 +7830,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7863,26 +7853,26 @@
         <v>117</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>74</v>
@@ -7924,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7939,15 +7929,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7973,13 +7963,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8029,7 +8019,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8044,15 +8034,15 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8075,17 +8065,17 @@
         <v>117</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8134,7 +8124,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8149,15 +8139,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8183,14 +8173,14 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8239,7 +8229,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8254,15 +8244,15 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8285,19 +8275,19 @@
         <v>117</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8346,7 +8336,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8361,18 +8351,18 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>74</v>
@@ -8394,19 +8384,19 @@
         <v>117</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8435,7 +8425,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8453,7 +8443,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8468,15 +8458,15 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8579,7 +8569,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8684,7 +8674,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8707,26 +8697,26 @@
         <v>117</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>74</v>
@@ -8768,7 +8758,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8783,15 +8773,15 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8817,13 +8807,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8873,7 +8863,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8888,15 +8878,15 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8919,17 +8909,17 @@
         <v>117</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8978,7 +8968,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8993,15 +8983,15 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9027,14 +9017,14 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9083,7 +9073,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9098,15 +9088,15 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9129,19 +9119,19 @@
         <v>117</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9190,7 +9180,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9205,15 +9195,15 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9297,7 +9287,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9312,15 +9302,15 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9346,10 +9336,10 @@
         <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9400,7 +9390,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9418,12 +9408,12 @@
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9526,7 +9516,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9631,7 +9621,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9657,16 +9647,16 @@
         <v>138</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9695,7 +9685,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>74</v>
@@ -9713,7 +9703,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9731,12 +9721,12 @@
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9759,19 +9749,19 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9815,36 +9805,36 @@
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
@@ -9866,19 +9856,19 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9927,7 +9917,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9936,24 +9926,24 @@
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AI76" t="s" s="2">
+      <c r="AK76" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>74</v>
@@ -9975,19 +9965,19 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -10036,7 +10026,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10045,21 +10035,21 @@
         <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10082,19 +10072,19 @@
         <v>117</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10138,10 +10128,10 @@
         <v>74</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>447</v>
+        <v>182</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10156,18 +10146,18 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>74</v>
@@ -10189,19 +10179,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10250,7 +10240,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10259,13 +10249,13 @@
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>122</v>
@@ -10273,7 +10263,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10376,7 +10366,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10481,7 +10471,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10504,13 +10494,13 @@
         <v>117</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10561,7 +10551,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10576,7 +10566,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10584,7 +10574,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10607,13 +10597,13 @@
         <v>117</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10664,7 +10654,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -10679,7 +10669,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>74</v>
@@ -10687,7 +10677,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10790,7 +10780,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10895,7 +10885,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10918,19 +10908,19 @@
         <v>117</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K86" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -10979,7 +10969,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10994,15 +10984,15 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11025,68 +11015,68 @@
         <v>117</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P87" t="s" s="2">
+      <c r="X87" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Q87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
+      <c r="Y87" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11101,15 +11091,15 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11135,21 +11125,21 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>74</v>
@@ -11191,7 +11181,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11206,15 +11196,15 @@
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11237,89 +11227,89 @@
         <v>117</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH89" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11342,26 +11332,26 @@
         <v>117</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>74</v>
@@ -11403,7 +11393,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11418,18 +11408,18 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>74</v>
@@ -11451,19 +11441,19 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -11512,7 +11502,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11521,24 +11511,24 @@
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AI91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>74</v>
@@ -11560,19 +11550,19 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -11621,7 +11611,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11630,21 +11620,21 @@
         <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11667,19 +11657,19 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>74</v>
@@ -11728,7 +11718,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -11737,13 +11727,13 @@
         <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>122</v>
@@ -11751,7 +11741,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11774,19 +11764,19 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>74</v>
@@ -11835,7 +11825,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -11844,21 +11834,21 @@
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11881,19 +11871,19 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>74</v>
@@ -11942,7 +11932,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -11951,16 +11941,16 @@
         <v>82</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,13 +746,10 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1047,8 +1044,8 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
-Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>
     <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
@@ -1410,10 +1407,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めたデータイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。【JP Core仕様】単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1554,13 +1551,10 @@
 </t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>単位時間あたり薬剤の投与量</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -5123,10 +5117,10 @@
         <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5185,21 +5179,21 @@
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AI31" t="s" s="2">
+      <c r="AJ31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5222,19 +5216,19 @@
         <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5283,7 +5277,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5298,7 +5292,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5306,7 +5300,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5329,16 +5323,16 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5388,7 +5382,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5403,7 +5397,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5411,7 +5405,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5437,16 +5431,16 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5495,7 +5489,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5510,7 +5504,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5518,7 +5512,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5544,16 +5538,16 @@
         <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5602,7 +5596,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5617,7 +5611,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5625,7 +5619,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5651,10 +5645,10 @@
         <v>197</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>149</v>
@@ -5686,28 +5680,28 @@
         <v>202</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5722,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5730,7 +5724,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5753,68 +5747,68 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5829,7 +5823,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5837,7 +5831,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5860,16 +5854,16 @@
         <v>117</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5919,7 +5913,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5934,7 +5928,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5942,7 +5936,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5968,13 +5962,13 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6024,7 +6018,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6039,7 +6033,7 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6047,7 +6041,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6073,13 +6067,13 @@
         <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6129,7 +6123,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6144,7 +6138,7 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6152,7 +6146,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6178,10 +6172,10 @@
         <v>197</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>149</v>
@@ -6213,11 +6207,11 @@
         <v>202</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6234,7 +6228,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6257,7 +6251,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6283,13 +6277,13 @@
         <v>197</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6319,25 +6313,25 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6360,7 +6354,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6383,16 +6377,16 @@
         <v>117</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6442,7 +6436,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6465,7 +6459,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6491,16 +6485,16 @@
         <v>197</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6528,28 +6522,28 @@
         <v>202</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6564,7 +6558,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6572,7 +6566,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6595,16 +6589,16 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6654,7 +6648,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6669,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6677,7 +6671,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6703,13 +6697,13 @@
         <v>138</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6739,25 +6733,25 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6772,7 +6766,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6780,7 +6774,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6803,16 +6797,16 @@
         <v>117</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6862,7 +6856,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6877,15 +6871,15 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6911,16 +6905,16 @@
         <v>138</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6949,7 +6943,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6967,7 +6961,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6982,15 +6976,15 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7016,16 +7010,16 @@
         <v>138</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7054,7 +7048,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7072,7 +7066,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7087,15 +7081,15 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7121,16 +7115,16 @@
         <v>138</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7155,14 +7149,14 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7179,7 +7173,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7194,15 +7188,15 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7305,7 +7299,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7410,7 +7404,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7433,19 +7427,19 @@
         <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7482,7 +7476,7 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
@@ -7492,7 +7486,7 @@
         <v>96</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7507,18 +7501,18 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>74</v>
@@ -7540,19 +7534,19 @@
         <v>117</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7581,7 +7575,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7599,7 +7593,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7614,15 +7608,15 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7725,7 +7719,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7830,7 +7824,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7856,65 +7850,65 @@
         <v>217</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7929,15 +7923,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7963,13 +7957,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8019,7 +8013,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8034,15 +8028,15 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8068,14 +8062,14 @@
         <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8124,7 +8118,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8139,15 +8133,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8173,14 +8167,14 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8229,7 +8223,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8244,15 +8238,15 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8275,19 +8269,19 @@
         <v>117</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8336,7 +8330,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8351,18 +8345,18 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>74</v>
@@ -8384,19 +8378,19 @@
         <v>117</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="M62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8425,7 +8419,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8443,7 +8437,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8458,15 +8452,15 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8569,7 +8563,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8674,7 +8668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8700,23 +8694,23 @@
         <v>217</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>74</v>
@@ -8758,7 +8752,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8773,15 +8767,15 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8807,13 +8801,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8863,7 +8857,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8878,15 +8872,15 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8912,14 +8906,14 @@
         <v>197</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8968,7 +8962,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8983,15 +8977,15 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9017,14 +9011,14 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9073,7 +9067,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9088,15 +9082,15 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9119,19 +9113,19 @@
         <v>117</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9180,7 +9174,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9195,15 +9189,15 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9287,7 +9281,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9302,15 +9296,15 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9336,10 +9330,10 @@
         <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9390,7 +9384,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9408,12 +9402,12 @@
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9516,7 +9510,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9621,7 +9615,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9647,16 +9641,16 @@
         <v>138</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9685,7 +9679,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>74</v>
@@ -9703,7 +9697,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9721,12 +9715,12 @@
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9749,19 +9743,19 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9808,7 +9802,7 @@
         <v>182</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9817,24 +9811,24 @@
         <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="AK75" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
@@ -9862,13 +9856,13 @@
         <v>235</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9917,7 +9911,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9926,24 +9920,24 @@
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AI76" t="s" s="2">
+      <c r="AJ76" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AJ76" t="s" s="2">
+      <c r="AK76" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>74</v>
@@ -9965,19 +9959,19 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N77" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -10026,7 +10020,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10035,21 +10029,21 @@
         <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10072,19 +10066,19 @@
         <v>117</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K78" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10131,7 +10125,7 @@
         <v>182</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10146,18 +10140,18 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>74</v>
@@ -10179,19 +10173,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10240,7 +10234,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10249,13 +10243,13 @@
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>122</v>
@@ -10263,7 +10257,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10366,7 +10360,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10471,7 +10465,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10494,13 +10488,13 @@
         <v>117</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10551,7 +10545,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10566,7 +10560,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10574,7 +10568,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10597,13 +10591,13 @@
         <v>117</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10654,7 +10648,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -10669,7 +10663,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>74</v>
@@ -10677,7 +10671,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10780,7 +10774,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10885,7 +10879,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10911,10 +10905,10 @@
         <v>189</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>191</v>
@@ -10992,7 +10986,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11099,7 +11093,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11125,10 +11119,10 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
@@ -11204,7 +11198,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11230,10 +11224,10 @@
         <v>217</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
@@ -11309,7 +11303,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11335,10 +11329,10 @@
         <v>197</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>228</v>
@@ -11416,10 +11410,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>74</v>
@@ -11447,13 +11441,13 @@
         <v>235</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -11502,7 +11496,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11511,24 +11505,24 @@
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AI91" t="s" s="2">
+      <c r="AJ91" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>74</v>
@@ -11550,19 +11544,19 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -11611,7 +11605,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11620,21 +11614,21 @@
         <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AJ92" t="s" s="2">
+      <c r="AK92" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11657,19 +11651,19 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>74</v>
@@ -11718,7 +11712,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -11727,13 +11721,13 @@
         <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>122</v>
@@ -11741,7 +11735,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11764,19 +11758,19 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N94" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>74</v>
@@ -11825,7 +11819,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -11834,21 +11828,21 @@
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI94" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AJ94" t="s" s="2">
+      <c r="AK94" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11871,19 +11865,19 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N95" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>74</v>
@@ -11932,7 +11926,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -11941,16 +11935,16 @@
         <v>82</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AJ95" t="s" s="2">
+      <c r="AK95" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
